--- a/Notes/MCMC/cb2.xlsx
+++ b/Notes/MCMC/cb2.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26709"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
   <workbookPr codeName="ThisWorkbook" checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-40120" yWindow="1300" windowWidth="19640" windowHeight="17380"/>
+    <workbookView xWindow="3560" yWindow="460" windowWidth="24440" windowHeight="17380"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="3" r:id="rId1"/>
@@ -27,6 +27,9 @@
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -97,28 +100,28 @@
     <t>inMillions</t>
   </si>
   <si>
-    <t>Triangular("Marketing Cost", 12,18,16) #Pymc3</t>
-  </si>
-  <si>
-    <t>pymc3.Uniform('Testing Cost', 3,5)</t>
-  </si>
-  <si>
     <t>pymc3.Deterministic("Gross Profit", B19())</t>
   </si>
   <si>
     <t>pymc3.Deterministic("Net Profit", B21())</t>
   </si>
   <si>
-    <t>pymc3.Binomial("Patients Cured", 100,.25)</t>
-  </si>
-  <si>
-    <t>pymc3.HalfNormal("Market Penetration",.08, .02)</t>
-  </si>
-  <si>
-    <t>Custom("Growth Rate", 0,.05, 0.75, -.15,-.0 5, 0.25) #Pymc3</t>
-  </si>
-  <si>
     <t>Distributions</t>
+  </si>
+  <si>
+    <t>B3 = pymc3.Uniform('Testing Cost', 3,5)</t>
+  </si>
+  <si>
+    <t>B4 = Triangular("Marketing Cost", 12,18,16) #Pymc3</t>
+  </si>
+  <si>
+    <t>B8 = pymc3.Binomial("Patients Cured", 100,.25)</t>
+  </si>
+  <si>
+    <t>#B13 = Custom("Growth Rate", 0,.05, 0.75, -.15,-.0 5, 0.25) #Pymc3</t>
+  </si>
+  <si>
+    <t>B17 = pymc3.Normal("Market Penetration",.08, .02)</t>
   </si>
 </sst>
 </file>
@@ -219,7 +222,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -240,6 +243,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -272,7 +281,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -320,6 +329,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="165" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -693,7 +703,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -713,7 +723,7 @@
         <v>19</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -733,7 +743,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -744,14 +754,14 @@
         <v>16</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="25">
         <f>SUM(B2:B4)</f>
         <v>30</v>
       </c>
@@ -779,15 +789,15 @@
         <v>100</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="12" t="b">
-        <f>B8&gt;=20</f>
+      <c r="B9" s="12">
+        <f>IF(B8&gt;=20,1,0)</f>
         <v>1</v>
       </c>
       <c r="C9" s="22"/>
@@ -856,7 +866,7 @@
         <v>0.08</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -877,7 +887,7 @@
         <v>39.167999999999999</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -894,7 +904,7 @@
         <v>9.1679999999999993</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="13" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Notes/MCMC/cb2.xlsx
+++ b/Notes/MCMC/cb2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3560" yWindow="460" windowWidth="24440" windowHeight="17380"/>
+    <workbookView xWindow="2840" yWindow="460" windowWidth="24440" windowHeight="17380"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="3" r:id="rId1"/>
@@ -703,7 +703,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
